--- a/data/trans_orig/P05A02-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>392777</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>368440</v>
+        <v>370086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>416214</v>
+        <v>415052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6745885256854997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6327895169914026</v>
+        <v>0.6356165302516142</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7148407797043179</v>
+        <v>0.7128446735482433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>573</v>
@@ -765,19 +765,19 @@
         <v>595346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>564012</v>
+        <v>565734</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>623713</v>
+        <v>627281</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6461346700641695</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.612127827349726</v>
+        <v>0.6139969753799202</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6769222473744461</v>
+        <v>0.6807941726404779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>958</v>
@@ -786,19 +786,19 @@
         <v>988122</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>952130</v>
+        <v>950953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1025608</v>
+        <v>1027131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6571526879667761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6332160394567542</v>
+        <v>0.6324327919004461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6820822996056448</v>
+        <v>0.6830955281681718</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>158952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>137068</v>
+        <v>136976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181083</v>
+        <v>182040</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2729975152789756</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2354124674617142</v>
+        <v>0.2352532565115746</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.311007721211873</v>
+        <v>0.3126503245330549</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -836,19 +836,19 @@
         <v>240920</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213540</v>
+        <v>214031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269029</v>
+        <v>268744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2614725947097846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2317571724698959</v>
+        <v>0.232289682383389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2919797428916539</v>
+        <v>0.2916707377121279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>388</v>
@@ -857,19 +857,19 @@
         <v>399872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>365383</v>
+        <v>369311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>436331</v>
+        <v>438134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2659353214083159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2429983338527679</v>
+        <v>0.245611142145481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2901828016989229</v>
+        <v>0.291382125105328</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>30518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20854</v>
+        <v>21076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42858</v>
+        <v>42824</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05241395903552474</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03581614559813626</v>
+        <v>0.03619761776178278</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07360755414559884</v>
+        <v>0.0735496247822658</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>80</v>
@@ -907,19 +907,19 @@
         <v>85130</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>70238</v>
+        <v>68634</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>106861</v>
+        <v>105851</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09239273522604594</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07623012059096723</v>
+        <v>0.07448910258052363</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1159771830920559</v>
+        <v>0.1148814344145012</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>110</v>
@@ -928,19 +928,19 @@
         <v>115648</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92972</v>
+        <v>95285</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>138409</v>
+        <v>137313</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07691199062490804</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06183142608804606</v>
+        <v>0.06336948125063357</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0920494514119853</v>
+        <v>0.09132045442925615</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>809339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>782423</v>
+        <v>779041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>838086</v>
+        <v>837426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7528056721940727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7277694928574774</v>
+        <v>0.7246237854897117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7795441937540456</v>
+        <v>0.7789302358348715</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>760</v>
@@ -1053,19 +1053,19 @@
         <v>785484</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>756178</v>
+        <v>757639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>814081</v>
+        <v>813859</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.743434781472093</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7156977608647772</v>
+        <v>0.7170803147032854</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7705003642778878</v>
+        <v>0.7702904822034807</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1548</v>
@@ -1074,19 +1074,19 @@
         <v>1594824</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1554459</v>
+        <v>1557529</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1632455</v>
+        <v>1639337</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7481609691429442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7292247707520486</v>
+        <v>0.7306652522012027</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7658142722899162</v>
+        <v>0.7690425864614613</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>233959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>208931</v>
+        <v>208101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>262381</v>
+        <v>261728</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.217616686177875</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1943364689317752</v>
+        <v>0.1935653240916247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2440536302791698</v>
+        <v>0.2434463131897078</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>217</v>
@@ -1124,19 +1124,19 @@
         <v>219328</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>192689</v>
+        <v>193443</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>246792</v>
+        <v>246062</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2075865510083148</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1823740620432913</v>
+        <v>0.1830872624062719</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2335807267686939</v>
+        <v>0.2328898742282532</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>451</v>
@@ -1145,19 +1145,19 @@
         <v>453287</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>417197</v>
+        <v>414908</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>490290</v>
+        <v>490913</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2126452271343908</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1957148516334112</v>
+        <v>0.1946407245883488</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2300040838402121</v>
+        <v>0.2302961478221119</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>31799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21892</v>
+        <v>21944</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45641</v>
+        <v>43429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02957764162805233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02036292539673178</v>
+        <v>0.02041158088677612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04245250406894342</v>
+        <v>0.04039562561505192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1195,19 +1195,19 @@
         <v>51749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40560</v>
+        <v>39174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68130</v>
+        <v>68468</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04897866751959224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03838871561527527</v>
+        <v>0.03707686758947385</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06448236387698622</v>
+        <v>0.06480230370530325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -1216,19 +1216,19 @@
         <v>83548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67371</v>
+        <v>65478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104159</v>
+        <v>101198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03919380372266502</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0316047505484241</v>
+        <v>0.03071699268925915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04886275131523339</v>
+        <v>0.04747375361681051</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>954827</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>931819</v>
+        <v>930297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>976705</v>
+        <v>979007</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.852608223095212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8320638045221483</v>
+        <v>0.8307044023399672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8721441161028907</v>
+        <v>0.8741996416110572</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>806</v>
@@ -1341,19 +1341,19 @@
         <v>815762</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>789573</v>
+        <v>790357</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>838142</v>
+        <v>838614</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8232163420106903</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7967879314289673</v>
+        <v>0.7975787695139732</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8458004671602048</v>
+        <v>0.8462769296168011</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1745</v>
@@ -1362,19 +1362,19 @@
         <v>1770589</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1734306</v>
+        <v>1735901</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1803543</v>
+        <v>1802413</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8388100083502852</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8216212305385483</v>
+        <v>0.8223770538271093</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.854421905961907</v>
+        <v>0.8538864960310443</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>148342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127284</v>
+        <v>125636</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170666</v>
+        <v>172312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1324616519001844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.11365782366815</v>
+        <v>0.1121859738653038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1523954851170363</v>
+        <v>0.1538651288083022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -1412,19 +1412,19 @@
         <v>138531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118523</v>
+        <v>117164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162017</v>
+        <v>162822</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1397971103442862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1196063343520912</v>
+        <v>0.1182349403570373</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1634973270697707</v>
+        <v>0.164310142736132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>281</v>
@@ -1433,19 +1433,19 @@
         <v>286874</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>257463</v>
+        <v>254058</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>322934</v>
+        <v>318293</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.13590533182571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1219721379014939</v>
+        <v>0.1203591646173167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1529889996616548</v>
+        <v>0.1507899689007329</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>16720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9980</v>
+        <v>9808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26173</v>
+        <v>25058</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01493012500460356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008912036482870445</v>
+        <v>0.008757592891593616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0233713115372035</v>
+        <v>0.0223753697751866</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1483,19 +1483,19 @@
         <v>36652</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26473</v>
+        <v>26027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50358</v>
+        <v>49317</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03698654764502354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02671451073353214</v>
+        <v>0.02626499490867903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05081791318513931</v>
+        <v>0.04976762799752593</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -1504,19 +1504,19 @@
         <v>53372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40322</v>
+        <v>40607</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68140</v>
+        <v>69885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02528465982400481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01910218639373732</v>
+        <v>0.01923720777109708</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03228099364086213</v>
+        <v>0.03310773102647131</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>370904</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>354642</v>
+        <v>354429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>385811</v>
+        <v>387420</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8341603335156758</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7975887121520119</v>
+        <v>0.797108976615771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.867686666886226</v>
+        <v>0.8713056314687717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>264</v>
@@ -1629,19 +1629,19 @@
         <v>262653</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>245959</v>
+        <v>245847</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>277233</v>
+        <v>277577</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7721352217044855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7230586454159589</v>
+        <v>0.7227315732129117</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.81499829924707</v>
+        <v>0.8160092315531059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>627</v>
@@ -1650,19 +1650,19 @@
         <v>633556</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>611809</v>
+        <v>607608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>655547</v>
+        <v>653049</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.807276398863523</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7795668066958669</v>
+        <v>0.7742137176014386</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8352966039699891</v>
+        <v>0.832114356083253</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>63670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49231</v>
+        <v>48887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78958</v>
+        <v>80227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1431946154478912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1107198042860978</v>
+        <v>0.1099467909425301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1775768962247567</v>
+        <v>0.1804301581712049</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -1700,19 +1700,19 @@
         <v>63395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48303</v>
+        <v>50711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78693</v>
+        <v>79683</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1863655737251213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1419992931290978</v>
+        <v>0.1490785800513796</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2313385364993954</v>
+        <v>0.2342477465762346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -1721,19 +1721,19 @@
         <v>127065</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106332</v>
+        <v>108525</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147942</v>
+        <v>150974</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.161906475649431</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.13548850667575</v>
+        <v>0.1382820329167703</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1885072729967574</v>
+        <v>0.1923711995416787</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>10069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5080</v>
+        <v>4923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18817</v>
+        <v>17988</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02264505103643303</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01142576099079427</v>
+        <v>0.01107164839094459</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04231982300767483</v>
+        <v>0.04045460515585867</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1771,19 +1771,19 @@
         <v>14117</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7784</v>
+        <v>8041</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22863</v>
+        <v>22976</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0414992045703932</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0228828039287186</v>
+        <v>0.02363799466047197</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06721097696545948</v>
+        <v>0.06754268767895945</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -1792,19 +1792,19 @@
         <v>24185</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16364</v>
+        <v>16309</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>35321</v>
+        <v>35839</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03081712548704598</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0208507162246272</v>
+        <v>0.02078071358283259</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04500644278496349</v>
+        <v>0.04566576126898821</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2527846</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2476016</v>
+        <v>2479109</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2572064</v>
+        <v>2575564</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7845883703591279</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7685014813343614</v>
+        <v>0.7694611998956217</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7983125552850197</v>
+        <v>0.7993988733583993</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2403</v>
@@ -1917,19 +1917,19 @@
         <v>2459245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2410847</v>
+        <v>2405890</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2506564</v>
+        <v>2505009</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7431839834085827</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7285582811384556</v>
+        <v>0.7270600977988969</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7574838200311793</v>
+        <v>0.757013788382225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4878</v>
@@ -1938,19 +1938,19 @@
         <v>4987091</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4922074</v>
+        <v>4912199</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5062136</v>
+        <v>5051256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.763609795332912</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7536545616645995</v>
+        <v>0.7521425320494537</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7751004114301077</v>
+        <v>0.7734344547912861</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>604924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>561351</v>
+        <v>560829</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>651091</v>
+        <v>651467</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1877551531824024</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1742311195107412</v>
+        <v>0.1740690810371796</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2020845310989604</v>
+        <v>0.2022012747735736</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>644</v>
@@ -1988,19 +1988,19 @@
         <v>662174</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>616907</v>
+        <v>616683</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>710665</v>
+        <v>710340</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2001089561612007</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1864293886584033</v>
+        <v>0.1863615038816652</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2147630917852547</v>
+        <v>0.2146649494050773</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1240</v>
@@ -2009,19 +2009,19 @@
         <v>1267098</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1203085</v>
+        <v>1204729</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1332286</v>
+        <v>1334266</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1940145184752484</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1842130607525255</v>
+        <v>0.1844648059951564</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2039960402376196</v>
+        <v>0.2042991878946376</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>89106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72672</v>
+        <v>72575</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112494</v>
+        <v>109539</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02765647645846982</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02255574351638624</v>
+        <v>0.02252571645721306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03491566674236553</v>
+        <v>0.03399843549317846</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -2059,19 +2059,19 @@
         <v>187647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161421</v>
+        <v>163090</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214388</v>
+        <v>214624</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05670706043021664</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04878138894051699</v>
+        <v>0.04928582202490649</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06478806488118045</v>
+        <v>0.06485946435152087</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>269</v>
@@ -2080,19 +2080,19 @@
         <v>276753</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>247388</v>
+        <v>246422</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>312942</v>
+        <v>311953</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04237568619183967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03787931632044668</v>
+        <v>0.03773142204218683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04791680600965381</v>
+        <v>0.0477653884066629</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>825486</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>797245</v>
+        <v>796403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>850229</v>
+        <v>851658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7936491056712148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7664980574184859</v>
+        <v>0.765688421638436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8174385304192043</v>
+        <v>0.8188120691682536</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>804</v>
@@ -2445,19 +2445,19 @@
         <v>871203</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>837486</v>
+        <v>840387</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>898045</v>
+        <v>898748</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7786464672767247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7485117994224523</v>
+        <v>0.7511050349319932</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8026375147856073</v>
+        <v>0.8032651549056598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1582</v>
@@ -2466,19 +2466,19 @@
         <v>1696687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1654765</v>
+        <v>1653603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1734055</v>
+        <v>1734721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.785874158276606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7664564173211299</v>
+        <v>0.7659180676282744</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8031821841685958</v>
+        <v>0.8034904889151638</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>172243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147472</v>
+        <v>148961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198471</v>
+        <v>198820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1656001024040527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1417849193869953</v>
+        <v>0.1432157293231616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1908169311545218</v>
+        <v>0.1911523755284246</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -2516,19 +2516,19 @@
         <v>188122</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>163678</v>
+        <v>163467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218373</v>
+        <v>217133</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1681356815413073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.146288787400107</v>
+        <v>0.1461000379559869</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1951734023874281</v>
+        <v>0.194065312343915</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -2537,19 +2537,19 @@
         <v>360364</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325829</v>
+        <v>327056</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>396996</v>
+        <v>400613</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1669141375683117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1509178819923175</v>
+        <v>0.151486148732782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1838813328595986</v>
+        <v>0.18555662631835</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>42385</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30136</v>
+        <v>30050</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57267</v>
+        <v>56666</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04075079192473247</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02897351498711815</v>
+        <v>0.02889076134044499</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05505828377332294</v>
+        <v>0.05448046420618351</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -2587,19 +2587,19 @@
         <v>59544</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45731</v>
+        <v>46175</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>78142</v>
+        <v>78188</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05321785118196796</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04087265562953663</v>
+        <v>0.04126909190926417</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06983988836987304</v>
+        <v>0.06988171116350675</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -2608,19 +2608,19 @@
         <v>101929</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82844</v>
+        <v>80692</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>123045</v>
+        <v>122788</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04721170415508227</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03837179456845234</v>
+        <v>0.03737491199532427</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05699209063295566</v>
+        <v>0.05687305930931883</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>847293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>823971</v>
+        <v>820120</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>868112</v>
+        <v>866686</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.868084293707836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.844189811267553</v>
+        <v>0.8402446552785909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8894146063585426</v>
+        <v>0.8879537225736099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>866</v>
@@ -2733,19 +2733,19 @@
         <v>928496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>902867</v>
+        <v>900233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>950647</v>
+        <v>952349</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.848513131293924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8250917170372171</v>
+        <v>0.822685018554293</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8687565655867324</v>
+        <v>0.8703113167932334</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1669</v>
@@ -2754,19 +2754,19 @@
         <v>1775788</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1738144</v>
+        <v>1743228</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1805779</v>
+        <v>1813679</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8577399630871856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8395569680568797</v>
+        <v>0.8420124344304787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8722257398274409</v>
+        <v>0.8760418839503494</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>114363</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94174</v>
+        <v>96203</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>137006</v>
+        <v>140436</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1171690203549807</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09648530519451683</v>
+        <v>0.09856420480646431</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1403684138546588</v>
+        <v>0.1438817522729532</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -2804,19 +2804,19 @@
         <v>132380</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>110545</v>
+        <v>111843</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>153872</v>
+        <v>158232</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1209769009375214</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.101022642088991</v>
+        <v>0.1022082790023147</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1406172529959299</v>
+        <v>0.1446016982786406</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>230</v>
@@ -2825,19 +2825,19 @@
         <v>246743</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>217841</v>
+        <v>215472</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>280154</v>
+        <v>278685</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1191816742217615</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1052214446644425</v>
+        <v>0.1040769709829348</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1353196560380833</v>
+        <v>0.134610363510414</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>14393</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8676</v>
+        <v>8372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23600</v>
+        <v>23354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01474668593718329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00888864401297464</v>
+        <v>0.0085771533434862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02417923737775464</v>
+        <v>0.02392661254698754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -2875,19 +2875,19 @@
         <v>33386</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22554</v>
+        <v>21729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48325</v>
+        <v>47159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03050996776855458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02061159011304104</v>
+        <v>0.01985739695043572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0441619177613493</v>
+        <v>0.04309695798895184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -2896,19 +2896,19 @@
         <v>47779</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34842</v>
+        <v>34697</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63728</v>
+        <v>62899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02307836269105283</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01682948154831088</v>
+        <v>0.01675935810735717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03078165050313479</v>
+        <v>0.03038147541680854</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>778850</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>758536</v>
+        <v>757549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>798141</v>
+        <v>798014</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8820550454843091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.859049585504586</v>
+        <v>0.8579307800675301</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9039016044416958</v>
+        <v>0.9037577810518929</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>724</v>
@@ -3021,19 +3021,19 @@
         <v>773052</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>752745</v>
+        <v>753058</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>791346</v>
+        <v>790438</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8836493516640818</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8604370820719215</v>
+        <v>0.8607954473626724</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9045613053926301</v>
+        <v>0.9035234845681825</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1452</v>
@@ -3042,19 +3042,19 @@
         <v>1551902</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1524723</v>
+        <v>1523235</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1579291</v>
+        <v>1579026</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8828485002510745</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8673867645395079</v>
+        <v>0.8665405506558974</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8984295999952515</v>
+        <v>0.8982787981968173</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>87154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71780</v>
+        <v>69738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106806</v>
+        <v>106830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09870305504863776</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08129182025482409</v>
+        <v>0.07897854070187244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.120958881855734</v>
+        <v>0.1209864303532889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -3092,19 +3092,19 @@
         <v>86356</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69814</v>
+        <v>70199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106603</v>
+        <v>105092</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09871019719542655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07980247620563818</v>
+        <v>0.08024201783691723</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1218538852088064</v>
+        <v>0.1201271560381168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -3113,19 +3113,19 @@
         <v>173510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150406</v>
+        <v>147398</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201187</v>
+        <v>198420</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09870660955434464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0855632869962039</v>
+        <v>0.08385216388995095</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1144518639395136</v>
+        <v>0.1128777682253619</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>16991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9922</v>
+        <v>9992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27044</v>
+        <v>27241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01924189946705306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01123700867719328</v>
+        <v>0.01131567813521346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03062732171431051</v>
+        <v>0.03085065979346283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -3163,19 +3163,19 @@
         <v>15433</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9012</v>
+        <v>8648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24221</v>
+        <v>25298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01764045114049171</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01030078602163114</v>
+        <v>0.009885804107044075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02768592480820292</v>
+        <v>0.02891746111955997</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -3184,19 +3184,19 @@
         <v>32423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22412</v>
+        <v>22727</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45798</v>
+        <v>45322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01844489019458088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01274953118161168</v>
+        <v>0.01292921561760217</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02605361566513599</v>
+        <v>0.02578286023961068</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>431315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>412935</v>
+        <v>413148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>446261</v>
+        <v>446370</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8633629478631063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8265719157592699</v>
+        <v>0.8269987193715286</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8932818029290426</v>
+        <v>0.8935001616452291</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>338</v>
@@ -3309,19 +3309,19 @@
         <v>370156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>350901</v>
+        <v>354491</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385615</v>
+        <v>385622</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8336141249856078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7902520084780398</v>
+        <v>0.7983370078830139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8684301422123063</v>
+        <v>0.8684457794337896</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>737</v>
@@ -3330,19 +3330,19 @@
         <v>801470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>774816</v>
+        <v>776320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>822387</v>
+        <v>824238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8493640020283298</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8211176542245014</v>
+        <v>0.8227105827654176</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8715311036040511</v>
+        <v>0.8734925723209914</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>55827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42575</v>
+        <v>41719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73884</v>
+        <v>74186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1117498676810855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08522144478043739</v>
+        <v>0.08350996584150416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1478943120744155</v>
+        <v>0.1484988068881287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -3380,19 +3380,19 @@
         <v>59490</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44091</v>
+        <v>44814</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77571</v>
+        <v>75368</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1339755354865326</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09929505456896504</v>
+        <v>0.1009236271185131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1746956770583797</v>
+        <v>0.1697343146246729</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>101</v>
@@ -3401,19 +3401,19 @@
         <v>115318</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>95953</v>
+        <v>93073</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>141048</v>
+        <v>137389</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1222086317482019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1016869346491137</v>
+        <v>0.09863444031854933</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1494763513147099</v>
+        <v>0.1455987314390457</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>12433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6527</v>
+        <v>6541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20971</v>
+        <v>21627</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02488718445580818</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01306505236441115</v>
+        <v>0.01309396822453584</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04197807370484043</v>
+        <v>0.04329080426313476</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -3451,19 +3451,19 @@
         <v>14391</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8336</v>
+        <v>8264</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24378</v>
+        <v>23456</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03241033952785955</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01877302721336349</v>
+        <v>0.01861149029806655</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05490033489176528</v>
+        <v>0.05282496927448191</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -3472,19 +3472,19 @@
         <v>26824</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17952</v>
+        <v>17792</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37715</v>
+        <v>39419</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02842736622346832</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01902440229856808</v>
+        <v>0.01885496590009095</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03996907537345947</v>
+        <v>0.04177422123398481</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2882943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2840938</v>
+        <v>2839386</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2923911</v>
+        <v>2924146</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.848240538044961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8358816073831494</v>
+        <v>0.8354249754022138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8602944933530309</v>
+        <v>0.8603634161507246</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2732</v>
@@ -3597,19 +3597,19 @@
         <v>2942905</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2894532</v>
+        <v>2895193</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2983369</v>
+        <v>2988235</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8332105830955765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.819515036008177</v>
+        <v>0.8197020708169073</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8446669587077554</v>
+        <v>0.8460446811166602</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5440</v>
@@ -3618,19 +3618,19 @@
         <v>5825848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5761102</v>
+        <v>5758730</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5888698</v>
+        <v>5886895</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8405810525571059</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8312391826915055</v>
+        <v>0.8308969838010776</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8496493343102842</v>
+        <v>0.8493892765950767</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>429587</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>391175</v>
+        <v>388325</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>471494</v>
+        <v>471894</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1263963430824434</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1150943685423115</v>
+        <v>0.1142557470405174</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.138726501263267</v>
+        <v>0.1388439625839759</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>432</v>
@@ -3668,19 +3668,19 @@
         <v>466348</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>426420</v>
+        <v>428572</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>510875</v>
+        <v>510700</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1320347831161752</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1207303226816406</v>
+        <v>0.1213395932998677</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1446414833421033</v>
+        <v>0.1445919850816939</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>827</v>
@@ -3689,19 +3689,19 @@
         <v>895935</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>842112</v>
+        <v>839773</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>952059</v>
+        <v>958736</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1292697748231206</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1215039161706403</v>
+        <v>0.1211664536810936</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.137367588771373</v>
+        <v>0.1383309710041444</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>86202</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69928</v>
+        <v>67620</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106579</v>
+        <v>105044</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02536311887259557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02057458289335617</v>
+        <v>0.0198955111111912</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03135858634148176</v>
+        <v>0.03090677354311566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -3739,19 +3739,19 @@
         <v>122754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>103079</v>
+        <v>103080</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147925</v>
+        <v>147610</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03475463378824835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02918417327583989</v>
+        <v>0.02918467411445357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04188133090706518</v>
+        <v>0.04179198047164241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>193</v>
@@ -3760,19 +3760,19 @@
         <v>208956</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182416</v>
+        <v>180699</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>238697</v>
+        <v>241938</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03014917261977351</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02631983090754892</v>
+        <v>0.02607217659961499</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03444037536885794</v>
+        <v>0.0349079276043205</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>961405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>937517</v>
+        <v>936831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>985870</v>
+        <v>984628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8523115841539229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8311340165343348</v>
+        <v>0.8305265877380446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8740007156333547</v>
+        <v>0.8728991507127504</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1005</v>
@@ -4125,19 +4125,19 @@
         <v>1065838</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1040435</v>
+        <v>1041483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1089867</v>
+        <v>1090599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8480748370534474</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.827862365972823</v>
+        <v>0.8286961303473542</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8671950483014169</v>
+        <v>0.8677769193194432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1915</v>
@@ -4146,19 +4146,19 @@
         <v>2027242</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1990550</v>
+        <v>1992097</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2062768</v>
+        <v>2063687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.850078819952226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8346928380936783</v>
+        <v>0.8353412418127258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8649758439565636</v>
+        <v>0.8653609294420945</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>132804</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112182</v>
+        <v>112242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>155271</v>
+        <v>156873</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1177346858884389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09945232705651882</v>
+        <v>0.09950540689874648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1376515811526132</v>
+        <v>0.139072321376991</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -4196,19 +4196,19 @@
         <v>148521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>127286</v>
+        <v>126236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>173974</v>
+        <v>173008</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.118176151294996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1012800188218599</v>
+        <v>0.1004445795981749</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.138429009112545</v>
+        <v>0.1376603831776542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>266</v>
@@ -4217,19 +4217,19 @@
         <v>281325</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>251152</v>
+        <v>250859</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>313671</v>
+        <v>316033</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1179673379992853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1053150996831</v>
+        <v>0.1051921216243406</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1315310939313308</v>
+        <v>0.1325215084687492</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>33788</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21803</v>
+        <v>22874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47315</v>
+        <v>46266</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02995372995763821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01932929335087057</v>
+        <v>0.02027838292615331</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04194637173146387</v>
+        <v>0.04101563178511639</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -4267,19 +4267,19 @@
         <v>42415</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30540</v>
+        <v>30605</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56079</v>
+        <v>56474</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03374901165155657</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0243001941544955</v>
+        <v>0.02435174887898442</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04462125752501914</v>
+        <v>0.04493578957891105</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -4288,19 +4288,19 @@
         <v>76203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60038</v>
+        <v>60390</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>96699</v>
+        <v>94611</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03195384204848862</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02517559681518061</v>
+        <v>0.02532319689122462</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04054855194989897</v>
+        <v>0.03967306235279311</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>768739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>744700</v>
+        <v>748846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>788819</v>
+        <v>790242</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8478776919770863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.82136336270175</v>
+        <v>0.8259365357157389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8700240003861672</v>
+        <v>0.871594046327704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>798</v>
@@ -4413,19 +4413,19 @@
         <v>844763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>820444</v>
+        <v>820764</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>865891</v>
+        <v>867702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8433503935935759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8190718582792083</v>
+        <v>0.8193918803592182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.864442820256929</v>
+        <v>0.8662514881603652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1545</v>
@@ -4434,19 +4434,19 @@
         <v>1613501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1581023</v>
+        <v>1579934</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1644058</v>
+        <v>1646133</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8455013406542504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8284821185616446</v>
+        <v>0.8279113642067588</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8615135647250963</v>
+        <v>0.8626009013593843</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>115077</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97984</v>
+        <v>95922</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>138513</v>
+        <v>135021</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1269237179741369</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1080710375742826</v>
+        <v>0.1057966669049963</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1527727481410366</v>
+        <v>0.1489212819062119</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>121</v>
@@ -4484,19 +4484,19 @@
         <v>127199</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>107458</v>
+        <v>107611</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>148209</v>
+        <v>149041</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1269864231777884</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1072785946661287</v>
+        <v>0.107431356131644</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1479613725838009</v>
+        <v>0.1487916333945056</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>232</v>
@@ -4505,19 +4505,19 @@
         <v>242276</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>215227</v>
+        <v>211927</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>275038</v>
+        <v>271137</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1269566315532791</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1127822468262072</v>
+        <v>0.1110531431317805</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1441244901288057</v>
+        <v>0.1420803100983328</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>22847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14557</v>
+        <v>14794</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34735</v>
+        <v>34670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02519859004877681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01605585644744199</v>
+        <v>0.01631657686748762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03831132625580465</v>
+        <v>0.03823953549427345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -4555,19 +4555,19 @@
         <v>29713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19858</v>
+        <v>20742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41503</v>
+        <v>41973</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02966318322863576</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01982501730541666</v>
+        <v>0.02070722357770614</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04143350519359237</v>
+        <v>0.04190255263386469</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -4576,19 +4576,19 @@
         <v>52559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37933</v>
+        <v>39868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68192</v>
+        <v>69475</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0275420277924705</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0198773230074856</v>
+        <v>0.02089148349766548</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03573390292556342</v>
+        <v>0.03640587941537777</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>756046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>739137</v>
+        <v>738072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>771219</v>
+        <v>769748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9201517105548144</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8995721991152564</v>
+        <v>0.89827572431086</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9386171149452449</v>
+        <v>0.936827014207859</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>658</v>
@@ -4701,19 +4701,19 @@
         <v>694800</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>676616</v>
+        <v>678068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>710015</v>
+        <v>710302</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9070475067519026</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8833080250422093</v>
+        <v>0.8852041492545119</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9269100519103403</v>
+        <v>0.9272847215468319</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1380</v>
@@ -4722,19 +4722,19 @@
         <v>1450847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1429970</v>
+        <v>1427948</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1475302</v>
+        <v>1472514</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9138292793189422</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9006797229341793</v>
+        <v>0.8994064981147302</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9292328949943879</v>
+        <v>0.9274767336300085</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>55496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40969</v>
+        <v>42625</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70233</v>
+        <v>71521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06754197122284526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04986207957983287</v>
+        <v>0.05187732388249455</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08547789377540044</v>
+        <v>0.08704517855119674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -4772,19 +4772,19 @@
         <v>55783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43232</v>
+        <v>42638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71999</v>
+        <v>71014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07282405068058656</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0564386065915669</v>
+        <v>0.05566293778989209</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09399382171862375</v>
+        <v>0.09270704911212534</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -4793,19 +4793,19 @@
         <v>111279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90477</v>
+        <v>91709</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131610</v>
+        <v>131672</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07009043465154755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05698787761700912</v>
+        <v>0.05776365994920271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08289571930531348</v>
+        <v>0.08293511648979346</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>10112</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5563</v>
+        <v>5223</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18286</v>
+        <v>18932</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01230631822234034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006769945009476873</v>
+        <v>0.00635640250903263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02225564828263209</v>
+        <v>0.02304137019389647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -4843,19 +4843,19 @@
         <v>15418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7850</v>
+        <v>8700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24503</v>
+        <v>24760</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02012844256751088</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01024750521112857</v>
+        <v>0.01135770568947494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0319887112514083</v>
+        <v>0.03232399162484064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -4864,19 +4864,19 @@
         <v>25530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16996</v>
+        <v>16634</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37639</v>
+        <v>37575</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0160802860295102</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01070528546997746</v>
+        <v>0.01047689068485803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0237075612421461</v>
+        <v>0.02366696020451994</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>458148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>444476</v>
+        <v>443781</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>470384</v>
+        <v>469522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9131005401944201</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8858510395983515</v>
+        <v>0.8844658272366513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9374872787957125</v>
+        <v>0.9357684566651786</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>395</v>
@@ -4989,19 +4989,19 @@
         <v>422748</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>406201</v>
+        <v>404185</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>437792</v>
+        <v>435709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8691483804346951</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8351289379193219</v>
+        <v>0.8309834718215797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9000792829412504</v>
+        <v>0.895795593648276</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>822</v>
@@ -5010,19 +5010,19 @@
         <v>880896</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>858030</v>
+        <v>858951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>899940</v>
+        <v>900434</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8914659933573836</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8683259283858403</v>
+        <v>0.8692573250629148</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9107386324558318</v>
+        <v>0.9112381264695106</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>31934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22058</v>
+        <v>21601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43953</v>
+        <v>45185</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06364534507097144</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0439625755401816</v>
+        <v>0.04305114800209355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0876002022737363</v>
+        <v>0.0900557455641522</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -5060,19 +5060,19 @@
         <v>45704</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34102</v>
+        <v>33565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61740</v>
+        <v>60876</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09396414318164611</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07011190464185096</v>
+        <v>0.06900819368814848</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1269343128278576</v>
+        <v>0.1251587625780936</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>71</v>
@@ -5081,19 +5081,19 @@
         <v>77638</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61493</v>
+        <v>60971</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96670</v>
+        <v>96738</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0785691499841739</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06223042813667212</v>
+        <v>0.06170228483630943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09783029129892801</v>
+        <v>0.09789874028974323</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>11668</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5949</v>
+        <v>6047</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19695</v>
+        <v>20996</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02325411473460847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01185655021669401</v>
+        <v>0.01205114695535401</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03925327186812565</v>
+        <v>0.04184517862748476</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -5131,19 +5131,19 @@
         <v>17942</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10339</v>
+        <v>10321</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29018</v>
+        <v>29869</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03688747638365873</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02125739613577541</v>
+        <v>0.02122024387658744</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05965978829885477</v>
+        <v>0.06140990219564094</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -5152,19 +5152,19 @@
         <v>29610</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19415</v>
+        <v>19802</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43298</v>
+        <v>42069</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02996485665844243</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01964837219185219</v>
+        <v>0.02003998498313645</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04381736499439547</v>
+        <v>0.04257349080568507</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2944339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2906082</v>
+        <v>2904483</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2983917</v>
+        <v>2980133</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8767965007477252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8654038581872291</v>
+        <v>0.864927773660642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8885825007174076</v>
+        <v>0.8874556934252228</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2856</v>
@@ -5277,19 +5277,19 @@
         <v>3028148</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2983782</v>
+        <v>2988320</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3071214</v>
+        <v>3068559</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.862513205402837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8498762547125558</v>
+        <v>0.8511687893454211</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.87477976880745</v>
+        <v>0.8740233621574306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5662</v>
@@ -5298,19 +5298,19 @@
         <v>5972487</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5914959</v>
+        <v>5915957</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6029759</v>
+        <v>6029031</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8694960078221143</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.86112090894021</v>
+        <v>0.861266179051698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8778338137365674</v>
+        <v>0.8777278528485405</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>335312</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>301961</v>
+        <v>302302</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>370504</v>
+        <v>372158</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09985265261030166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08992124086628156</v>
+        <v>0.09002270287517895</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1103326283168559</v>
+        <v>0.1108250803183451</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>355</v>
@@ -5348,19 +5348,19 @@
         <v>377207</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>340118</v>
+        <v>342072</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>417578</v>
+        <v>417884</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1074404618535238</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0968764971170685</v>
+        <v>0.09743294283161583</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1189394154380429</v>
+        <v>0.119026813194086</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>673</v>
@@ -5369,19 +5369,19 @@
         <v>712518</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>665734</v>
+        <v>661824</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>769946</v>
+        <v>764437</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1037309416439911</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09691998695593125</v>
+        <v>0.0963507025717223</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1120915568973797</v>
+        <v>0.1112894643793363</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>78414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61795</v>
+        <v>62080</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96191</v>
+        <v>97820</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02335084664197318</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0184020742565398</v>
+        <v>0.01848684513908081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02864479217880032</v>
+        <v>0.02912978975818616</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -5419,19 +5419,19 @@
         <v>105488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85591</v>
+        <v>86932</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126911</v>
+        <v>129001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03004633274363918</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0243790667061181</v>
+        <v>0.0247609460332236</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03614840754775978</v>
+        <v>0.03674351248497039</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -5440,19 +5440,19 @@
         <v>183902</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159309</v>
+        <v>156945</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214144</v>
+        <v>212523</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0267730505338945</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02319271514583697</v>
+        <v>0.02284866647339344</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03117577632279448</v>
+        <v>0.0309397916250418</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>426091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>408983</v>
+        <v>407628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>442387</v>
+        <v>441407</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8561988826370653</v>
+        <v>0.8561988826370655</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.821821784000626</v>
+        <v>0.8191000148864361</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8889457840385931</v>
+        <v>0.8869758091447728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>733</v>
@@ -5805,19 +5805,19 @@
         <v>525245</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>507722</v>
+        <v>505979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>542711</v>
+        <v>539946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8423058312010249</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8142048751081763</v>
+        <v>0.8114098236417703</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8703156708946035</v>
+        <v>0.8658802124463834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1121</v>
@@ -5826,19 +5826,19 @@
         <v>951336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>927051</v>
+        <v>926022</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>973965</v>
+        <v>975056</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8484721868102988</v>
+        <v>0.8484721868102989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8268133122689334</v>
+        <v>0.8258952164180312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.868654749525739</v>
+        <v>0.8696278792003593</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>50635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36468</v>
+        <v>37497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65463</v>
+        <v>67369</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1017479117140687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07327898615879309</v>
+        <v>0.07534659448699761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1315424571304082</v>
+        <v>0.1353740868776223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -5876,19 +5876,19 @@
         <v>70115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55087</v>
+        <v>56643</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85821</v>
+        <v>86997</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1124390780556606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08833917567717504</v>
+        <v>0.09083461204859627</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1376261119552117</v>
+        <v>0.1395114739968968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -5897,19 +5897,19 @@
         <v>120750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102040</v>
+        <v>101110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142720</v>
+        <v>143584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1076938617981914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09100663251979597</v>
+        <v>0.09017769126981418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1272885460356024</v>
+        <v>0.1280587314032662</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>20928</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13099</v>
+        <v>13679</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32381</v>
+        <v>32339</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04205320564886585</v>
+        <v>0.04205320564886586</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02632121643111578</v>
+        <v>0.02748625517328903</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06506769001398204</v>
+        <v>0.0649821133950107</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -5947,19 +5947,19 @@
         <v>28220</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19946</v>
+        <v>20051</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39103</v>
+        <v>38072</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04525509074331446</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03198566257009815</v>
+        <v>0.03215495272151383</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0627078014442693</v>
+        <v>0.06105450923385965</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -5968,19 +5968,19 @@
         <v>49148</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37070</v>
+        <v>37068</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63632</v>
+        <v>64004</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04383395139150979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03306160723302189</v>
+        <v>0.03306033870143819</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05675163142161278</v>
+        <v>0.05708333633515246</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>879992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>857601</v>
+        <v>856261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>897962</v>
+        <v>897976</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9176610214968809</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.894311386278107</v>
+        <v>0.8929138362382038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9364006921697473</v>
+        <v>0.9364153971004024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1461</v>
@@ -6093,19 +6093,19 @@
         <v>1004187</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>983969</v>
+        <v>986071</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1021810</v>
+        <v>1023357</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9002793755027029</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.882153068901857</v>
+        <v>0.8840376336128245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9160789903955415</v>
+        <v>0.9174659533708849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2300</v>
@@ -6114,19 +6114,19 @@
         <v>1884179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1853845</v>
+        <v>1854962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1910277</v>
+        <v>1911583</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9083146637749262</v>
+        <v>0.9083146637749263</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.893691591047037</v>
+        <v>0.8942297832202372</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9208961081608417</v>
+        <v>0.9215256055852398</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>67966</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52050</v>
+        <v>51292</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>88167</v>
+        <v>87219</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07087543586166342</v>
+        <v>0.07087543586166344</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05427788767353945</v>
+        <v>0.05348770776810927</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09194114298370332</v>
+        <v>0.09095254351766026</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>123</v>
@@ -6164,19 +6164,19 @@
         <v>96630</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79285</v>
+        <v>78865</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>115238</v>
+        <v>114036</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08663129411088348</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0710806033533737</v>
+        <v>0.07070407401248267</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1033137355309488</v>
+        <v>0.1022363673835996</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>184</v>
@@ -6185,19 +6185,19 @@
         <v>164596</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139936</v>
+        <v>138610</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>192136</v>
+        <v>190644</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07934758444085686</v>
+        <v>0.07934758444085689</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06745980646648099</v>
+        <v>0.06682029156546895</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09262379598333503</v>
+        <v>0.09190471698155336</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>10993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5403</v>
+        <v>5178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25341</v>
+        <v>26915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01146354264145569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005634683317836971</v>
+        <v>0.005400126154838667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02642564094045064</v>
+        <v>0.02806744362945513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -6235,19 +6235,19 @@
         <v>14600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9469</v>
+        <v>9499</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21751</v>
+        <v>22506</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01308933038641372</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008489547477020546</v>
+        <v>0.008515944846644852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0195001294447422</v>
+        <v>0.02017685528910913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -6256,19 +6256,19 @@
         <v>25593</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18055</v>
+        <v>17460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40739</v>
+        <v>41028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0123377517842168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008704062398126969</v>
+        <v>0.008417253514884881</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01963923019450864</v>
+        <v>0.0197783364227141</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>993200</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>976035</v>
+        <v>974043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1007500</v>
+        <v>1007393</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9490872374367203</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9326847126253218</v>
+        <v>0.9307812333531565</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9627523798731328</v>
+        <v>0.9626502530704448</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1414</v>
@@ -6381,19 +6381,19 @@
         <v>973458</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>956316</v>
+        <v>955282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>987211</v>
+        <v>986889</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9291897391562904</v>
+        <v>0.9291897391562907</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9128268736712333</v>
+        <v>0.911840028906181</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9423172542783476</v>
+        <v>0.9420094893629294</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2392</v>
@@ -6402,19 +6402,19 @@
         <v>1966658</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1942535</v>
+        <v>1941761</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1986980</v>
+        <v>1986605</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.939132966169844</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9276134167862821</v>
+        <v>0.9272440418849962</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9488374293063691</v>
+        <v>0.9486581656223387</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>42170</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29307</v>
+        <v>30555</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57389</v>
+        <v>59508</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04029710190648261</v>
+        <v>0.0402971019064826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02800538947183814</v>
+        <v>0.02919776798349206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05484039071356093</v>
+        <v>0.05686520967666728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -6452,19 +6452,19 @@
         <v>58479</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46134</v>
+        <v>46256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72496</v>
+        <v>73482</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0558193818393775</v>
+        <v>0.05581938183937751</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04403613745969474</v>
+        <v>0.04415228073576101</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06919879167937593</v>
+        <v>0.07014027235580078</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -6473,19 +6473,19 @@
         <v>100649</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82953</v>
+        <v>82363</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122283</v>
+        <v>123058</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04806254975096852</v>
+        <v>0.04806254975096853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03961239727871831</v>
+        <v>0.03933059777922402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05839336279201103</v>
+        <v>0.0587637044062672</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>11109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5658</v>
+        <v>5800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21664</v>
+        <v>22852</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01061566065679708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005407153316625104</v>
+        <v>0.005541921750728361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0207017373094135</v>
+        <v>0.02183699735258349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -6523,19 +6523,19 @@
         <v>15705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9518</v>
+        <v>9757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26136</v>
+        <v>26663</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01499087900433192</v>
+        <v>0.01499087900433193</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009085342891812334</v>
+        <v>0.00931350508281396</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02494721916100312</v>
+        <v>0.02545017540896708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -6544,19 +6544,19 @@
         <v>26814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17915</v>
+        <v>18086</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40350</v>
+        <v>40876</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01280448407918741</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008554822808000427</v>
+        <v>0.008636544670168061</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01926813960590834</v>
+        <v>0.0195195554397039</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>867117</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>843566</v>
+        <v>842674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>886896</v>
+        <v>888647</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8885046232991579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8643722667094113</v>
+        <v>0.8634584523101836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9087712824233946</v>
+        <v>0.910565169093724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1167</v>
@@ -6669,19 +6669,19 @@
         <v>803640</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>785887</v>
+        <v>787072</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>818809</v>
+        <v>821710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8852244794330467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8656683375697336</v>
+        <v>0.8669737080012816</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9019331586400309</v>
+        <v>0.90512807852599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2012</v>
@@ -6690,19 +6690,19 @@
         <v>1670759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1643034</v>
+        <v>1640773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1696508</v>
+        <v>1696719</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8869238334925534</v>
+        <v>0.8869238334925533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8722061564801356</v>
+        <v>0.8710060298910488</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9005927468199639</v>
+        <v>0.9007048830113168</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>79923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62345</v>
+        <v>61718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99971</v>
+        <v>102401</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08189451557211704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06388237599996274</v>
+        <v>0.06324046565704707</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1024364087897278</v>
+        <v>0.1049270242822636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -6740,19 +6740,19 @@
         <v>78924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65688</v>
+        <v>64292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95677</v>
+        <v>94504</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08693644755749098</v>
+        <v>0.086936447557491</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0723566128116989</v>
+        <v>0.07081887146420948</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1053902176578186</v>
+        <v>0.1040979944389771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>195</v>
@@ -6761,19 +6761,19 @@
         <v>158848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>136338</v>
+        <v>136617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>183846</v>
+        <v>185877</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08432435859528949</v>
+        <v>0.08432435859528944</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07237527462079518</v>
+        <v>0.07252346389822739</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09759461101600635</v>
+        <v>0.09867278616171249</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>28888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19299</v>
+        <v>18081</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42814</v>
+        <v>42684</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02960086112872515</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01977504847028311</v>
+        <v>0.01852649323601468</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04387044674700893</v>
+        <v>0.04373642199830126</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -6811,19 +6811,19 @@
         <v>25273</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18024</v>
+        <v>18018</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35103</v>
+        <v>36559</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02783907300946232</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01985356055410219</v>
+        <v>0.01984721548854019</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0386668484347603</v>
+        <v>0.04027046929358079</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>60</v>
@@ -6832,19 +6832,19 @@
         <v>54162</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41469</v>
+        <v>41095</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70954</v>
+        <v>70626</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.02875180791215714</v>
+        <v>0.02875180791215713</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02201374446513613</v>
+        <v>0.02181536371717135</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03766574757099212</v>
+        <v>0.03749167711535613</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>3166400</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3125302</v>
+        <v>3124086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3199625</v>
+        <v>3200611</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9101432138177933</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8983300882121721</v>
+        <v>0.8979805534975849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9196932483386615</v>
+        <v>0.9199766701936369</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4775</v>
@@ -6957,19 +6957,19 @@
         <v>3306531</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3272677</v>
+        <v>3270598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3338896</v>
+        <v>3341026</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8949928706780368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8858295176563452</v>
+        <v>0.8852668428575737</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9037534629495748</v>
+        <v>0.9043297853068047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7825</v>
@@ -6978,19 +6978,19 @@
         <v>6472931</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6418274</v>
+        <v>6419168</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6520242</v>
+        <v>6525742</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9023405127245885</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8947212632530229</v>
+        <v>0.8948458254948338</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9089358079227988</v>
+        <v>0.9097024641443501</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>240695</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>211229</v>
+        <v>210850</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>278256</v>
+        <v>275140</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06918474005549329</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06071525715353698</v>
+        <v>0.06060633520130043</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07998122219269579</v>
+        <v>0.07908561402708526</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>415</v>
@@ -7028,19 +7028,19 @@
         <v>304148</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>273149</v>
+        <v>272229</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>334684</v>
+        <v>334798</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08232497855309082</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07393454407361852</v>
+        <v>0.07368533143565634</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09059025651111502</v>
+        <v>0.09062108588440385</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>640</v>
@@ -7049,19 +7049,19 @@
         <v>544842</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>502389</v>
+        <v>497772</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>594655</v>
+        <v>595104</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07595220085452459</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07003414423105375</v>
+        <v>0.06939042366358084</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08289619333963819</v>
+        <v>0.08295884954569292</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>71918</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53711</v>
+        <v>54166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93807</v>
+        <v>93171</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02067204612671345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01543850424043142</v>
+        <v>0.01556923060214075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02696369507761438</v>
+        <v>0.02678074566074143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -7099,19 +7099,19 @@
         <v>83799</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68389</v>
+        <v>67693</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101465</v>
+        <v>102453</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02268215076887236</v>
+        <v>0.02268215076887237</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01851120462118484</v>
+        <v>0.01832278630615562</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02746400560800722</v>
+        <v>0.02773140699311075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>177</v>
@@ -7120,19 +7120,19 @@
         <v>155717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>134378</v>
+        <v>132915</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>185975</v>
+        <v>182592</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02170728642088684</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01873255641324188</v>
+        <v>0.0185286981927754</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02592531393073397</v>
+        <v>0.02545370605930441</v>
       </c>
     </row>
     <row r="23">
